--- a/temp1.xlsx
+++ b/temp1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_2289E82A9C6B460E62355476585DCE3A8746F4C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47936C88-98B4-49BE-8FD2-A202BBE97C0C}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_501569889A44CE0E62355476585DCE3A874611D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E30C5EC-5CCF-4A77-A23D-2016CDC8774F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="17040" yWindow="11250" windowWidth="2160" windowHeight="3510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="182">
   <si>
     <t>UHID</t>
   </si>
@@ -83,15 +83,12 @@
     <t>NAN</t>
   </si>
   <si>
-    <t>Infection_R</t>
+    <t>Infection_A</t>
   </si>
   <si>
     <t>ENTEROCOCCUS FAECALIS</t>
   </si>
   <si>
-    <t>CONTAMINATION</t>
-  </si>
-  <si>
     <t>E.Coli, K.pneumoniae, P. aeruginosa, A. baumanni and S. aureus</t>
   </si>
   <si>
@@ -104,12 +101,6 @@
     <t>E COLI</t>
   </si>
   <si>
-    <t>K.pneumoniae, E. faecalis, P. mirabilis,  A. baumanni and S. aureus</t>
-  </si>
-  <si>
-    <t>K PNEUMONIAE, E FAECALIS, P MIRABILIS, A BAUMANNI S AUREUS</t>
-  </si>
-  <si>
     <t>Polymicrobial (E.coli, A. baumannii, P.mirabilis, E. faecalis,S aureus</t>
   </si>
   <si>
@@ -164,12 +155,6 @@
     <t>K PNEUMONIAE P AERUIGINOSA</t>
   </si>
   <si>
-    <t>K. Pneumoniae, P. aeruginosa, P.mirabilis, S aureus,</t>
-  </si>
-  <si>
-    <t>K PNEUMONIAE, P AERUGINOSA, P MIRABILIS, S AUREUS,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> K pneumoniae, A baumannii, P.mirabilis</t>
   </si>
   <si>
@@ -212,360 +197,282 @@
     <t>E COLI, P AERUGINOSA, A BAUMANNII</t>
   </si>
   <si>
+    <t xml:space="preserve"> E.Faecalis</t>
+  </si>
+  <si>
+    <t>E FAECALIS</t>
+  </si>
+  <si>
+    <t>E.coli, E.faecalis, A baumannii</t>
+  </si>
+  <si>
+    <t>E COLI, E FAECALIS, A BAUMANNII</t>
+  </si>
+  <si>
+    <t>Klebsiella pneumonia, and P. mirabilis</t>
+  </si>
+  <si>
+    <t>Candida spp.</t>
+  </si>
+  <si>
+    <t>KLEBSIELLA PNEUMONIA, P MIRABILIS</t>
+  </si>
+  <si>
+    <t>CANDIDA SPP</t>
+  </si>
+  <si>
+    <t>E. Coli, K pneumoniae, P.mirabilis, S aureus</t>
+  </si>
+  <si>
+    <t>E COLI, K PNEUMONIAE, P MIRABILIS, S AUREUS</t>
+  </si>
+  <si>
+    <t>E. Coli, K pneumoniae</t>
+  </si>
+  <si>
+    <t>E COLI, K PNEUMONIAE</t>
+  </si>
+  <si>
+    <t>K pneumoniae</t>
+  </si>
+  <si>
+    <t>K PNEUMONIAE</t>
+  </si>
+  <si>
+    <t>A baumannii, P mirabilis and Psedomonas Aurogenosa</t>
+  </si>
+  <si>
+    <t>A BAUMANNII, P MIRABILIS PSEDOMONAS AUROGENOSA</t>
+  </si>
+  <si>
+    <t>E. Coli, K pneumoniae, S aureus, E.Faecalis</t>
+  </si>
+  <si>
+    <t>E COLI, K PNEUMONIAE, S AUREUS, E FAECALIS</t>
+  </si>
+  <si>
+    <t>KLEBSIELLA PNEUMONIAE</t>
+  </si>
+  <si>
+    <t>A baumannii, P mirabilis and S aureus</t>
+  </si>
+  <si>
+    <t>A BAUMANNII, P MIRABILIS S AUREUS</t>
+  </si>
+  <si>
+    <t>E. Coli, P aeruginosa, S aureus</t>
+  </si>
+  <si>
+    <t>E COLI, P AERUGINOSA, S AUREUS</t>
+  </si>
+  <si>
+    <t>E coli</t>
+  </si>
+  <si>
+    <t>A. baumannii, P.mirabilis, E. Faecalis</t>
+  </si>
+  <si>
+    <t>A BAUMANNII, P MIRABILIS, E FAECALIS</t>
+  </si>
+  <si>
+    <t>P mirabilis</t>
+  </si>
+  <si>
+    <t>P MIRABILIS</t>
+  </si>
+  <si>
+    <t>K. Pneumoniae</t>
+  </si>
+  <si>
+    <t>K. Pneumoniae ans S aureus</t>
+  </si>
+  <si>
+    <t>K PNEUMONIAE ANS S AUREUS</t>
+  </si>
+  <si>
+    <t>E. Coli, A baumannii, P.mirabilis, E.Faecalis, S saprophyticus</t>
+  </si>
+  <si>
+    <t>E COLI, A BAUMANNII, P MIRABILIS, E FAECALIS, S SAPROPHYTICUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A baumannii, E.Faecalis, S aureus</t>
+  </si>
+  <si>
+    <t>A BAUMANNII, E FAECALIS, S AUREUS</t>
+  </si>
+  <si>
+    <t>E. Coli and A baumannii</t>
+  </si>
+  <si>
+    <t>E COLI A BAUMANNII</t>
+  </si>
+  <si>
+    <t>E. Coli, P.mirabilis, S aureus</t>
+  </si>
+  <si>
+    <t>E COLI, P MIRABILIS, S AUREUS</t>
+  </si>
+  <si>
+    <t>S saprophyticus</t>
+  </si>
+  <si>
+    <t>S SAPROPHYTICUS</t>
+  </si>
+  <si>
+    <t>K. Pneumoniae ans P aeruginosa</t>
+  </si>
+  <si>
+    <t>K PNEUMONIAE ANS P AERUGINOSA</t>
+  </si>
+  <si>
+    <t>E. Coli and E.Faecalis</t>
+  </si>
+  <si>
+    <t>E COLI E FAECALIS</t>
+  </si>
+  <si>
+    <t>A.Baumini</t>
+  </si>
+  <si>
+    <t>Enterococcus faecalis &gt;105CFU/ml)</t>
+  </si>
+  <si>
+    <t>A BAUMINI</t>
+  </si>
+  <si>
+    <t>ENTEROCOCCUS FAECALIS &gt;105CFU/ML)</t>
+  </si>
+  <si>
+    <t>E.coli, P aeruginosa, E. Faecalis, S saprophyticus</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeuroginosa</t>
+  </si>
+  <si>
+    <t>E COLI, P AERUGINOSA, E FAECALIS, S SAPROPHYTICUS</t>
+  </si>
+  <si>
+    <t>PSEUDOMONAS AEUROGINOSA</t>
+  </si>
+  <si>
+    <t>E.coli and K pneumoniae</t>
+  </si>
+  <si>
+    <t>E COLI K PNEUMONIAE</t>
+  </si>
+  <si>
+    <t>A. Bauminni</t>
+  </si>
+  <si>
+    <t>A BAUMINNI</t>
+  </si>
+  <si>
+    <t>Insignificant growth</t>
+  </si>
+  <si>
+    <t>INSIGNIFICANT GROWTH</t>
+  </si>
+  <si>
+    <t>S. Aureus and K.Pneuminoneae</t>
+  </si>
+  <si>
+    <t>S AUREUS K PNEUMINONEAE</t>
+  </si>
+  <si>
+    <t>E.Coli, psedomomass, A. baumannii, E. Faecalis, P mirabilis</t>
+  </si>
+  <si>
+    <t>E COLI, PSEDOMOMASS, A BAUMANNII, E FAECALIS, P MIRABILIS</t>
+  </si>
+  <si>
+    <t>E.coli, A. baumannii,  S saprophyticus</t>
+  </si>
+  <si>
+    <t>E COLI, A BAUMANNII, S SAPROPHYTICUS</t>
+  </si>
+  <si>
+    <t>E.faecalis</t>
+  </si>
+  <si>
+    <t>klebsiella, E.coli</t>
+  </si>
+  <si>
+    <t>KLEBSIELLA, E COLI</t>
+  </si>
+  <si>
+    <t>E. coli, E. Faecalis</t>
+  </si>
+  <si>
+    <t>E COLI, E FAECALIS</t>
+  </si>
+  <si>
+    <t>E. Faecalis</t>
+  </si>
+  <si>
+    <t>E. coli, S.aureus</t>
+  </si>
+  <si>
     <t>E. coli</t>
   </si>
   <si>
-    <t xml:space="preserve"> E.Faecalis</t>
-  </si>
-  <si>
-    <t>E FAECALIS</t>
-  </si>
-  <si>
-    <t>E.coli, E.faecalis, A baumannii</t>
-  </si>
-  <si>
-    <t>E COLI, E FAECALIS, A BAUMANNII</t>
-  </si>
-  <si>
-    <t>Klebsiella pneumonia, and P. mirabilis</t>
-  </si>
-  <si>
-    <t>Candida spp.</t>
-  </si>
-  <si>
-    <t>KLEBSIELLA PNEUMONIA, P MIRABILIS</t>
-  </si>
-  <si>
-    <t>CANDIDA SPP</t>
-  </si>
-  <si>
-    <t>E. Coli, K pneumoniae, P.mirabilis, S aureus</t>
-  </si>
-  <si>
-    <t>E COLI, K PNEUMONIAE, P MIRABILIS, S AUREUS</t>
-  </si>
-  <si>
-    <t>E. Coli, K pneumoniae</t>
-  </si>
-  <si>
-    <t>E COLI, K PNEUMONIAE</t>
-  </si>
-  <si>
-    <t>K pneumoniae</t>
-  </si>
-  <si>
-    <t>K PNEUMONIAE</t>
-  </si>
-  <si>
-    <t>K pneumoniae, P.mirabilis</t>
+    <t>E COLI, S AUREUS</t>
+  </si>
+  <si>
+    <t>P. aeruginosa</t>
+  </si>
+  <si>
+    <t>Acintobacter spp.</t>
+  </si>
+  <si>
+    <t>P AERUGINOSA</t>
+  </si>
+  <si>
+    <t>ACINTOBACTER SPP</t>
+  </si>
+  <si>
+    <t>A baumannii, S saprophyticus</t>
+  </si>
+  <si>
+    <t>A BAUMANNII, S SAPROPHYTICUS</t>
+  </si>
+  <si>
+    <t>P mirabilis, S aureus, E.coli</t>
+  </si>
+  <si>
+    <t>P MIRABILIS, S AUREUS, E COLI</t>
+  </si>
+  <si>
+    <t>S aureus</t>
+  </si>
+  <si>
+    <t>S AUREUS</t>
+  </si>
+  <si>
+    <t>E.coli and K.pneumoneae</t>
+  </si>
+  <si>
+    <t>Methicillin-resistant Staphylococcus aureus</t>
+  </si>
+  <si>
+    <t>E COLI K PNEUMONEAE</t>
+  </si>
+  <si>
+    <t>METHICILLIN-RESISTANT STAPHYLOCOCCUS AUREUS</t>
+  </si>
+  <si>
+    <t>Commensal Flora</t>
+  </si>
+  <si>
+    <t>COMMENSAL FLORA</t>
+  </si>
+  <si>
+    <t>K pneumoniae, P mirabilis</t>
   </si>
   <si>
     <t>K PNEUMONIAE, P MIRABILIS</t>
   </si>
   <si>
-    <t>A baumannii, P mirabilis and Psedomonas Aurogenosa</t>
-  </si>
-  <si>
-    <t>A BAUMANNII, P MIRABILIS PSEDOMONAS AUROGENOSA</t>
-  </si>
-  <si>
-    <t>contamination</t>
-  </si>
-  <si>
-    <t>E. Coli, K pneumoniae, S aureus, E.Faecalis</t>
-  </si>
-  <si>
-    <t>E COLI, K PNEUMONIAE, S AUREUS, E FAECALIS</t>
-  </si>
-  <si>
-    <t>P aeruginosa</t>
-  </si>
-  <si>
-    <t>P AERUGINOSA</t>
-  </si>
-  <si>
-    <t>E. Coli, P aeruginosa, P.mirabilis, S aureus, E.Faecalis</t>
-  </si>
-  <si>
-    <t>E COLI, P AERUGINOSA, P MIRABILIS, S AUREUS, E FAECALIS</t>
-  </si>
-  <si>
-    <t>KLEBSIELLA PNEUMONIAE</t>
-  </si>
-  <si>
-    <t>A baumannii, P mirabilis and S aureus</t>
-  </si>
-  <si>
-    <t>A BAUMANNII, P MIRABILIS S AUREUS</t>
-  </si>
-  <si>
-    <t>E. Coli, P aeruginosa, S aureus</t>
-  </si>
-  <si>
-    <t>E COLI, P AERUGINOSA, S AUREUS</t>
-  </si>
-  <si>
-    <t>E. Coli, K pneumoniae, A baumannii, E.Faecalis</t>
-  </si>
-  <si>
-    <t>E COLI, K PNEUMONIAE, A BAUMANNII, E FAECALIS</t>
-  </si>
-  <si>
-    <t>E. Coli, P. aeruginosa</t>
-  </si>
-  <si>
-    <t>E COLI, P AERUGINOSA</t>
-  </si>
-  <si>
-    <t>E. coli, E faecalis</t>
-  </si>
-  <si>
-    <t>E COLI, E FAECALIS</t>
-  </si>
-  <si>
-    <t>E. coli and K pneumoniae</t>
-  </si>
-  <si>
-    <t>E COLI K PNEUMONIAE</t>
-  </si>
-  <si>
-    <t>E coli</t>
-  </si>
-  <si>
-    <t>A. baumannii, P.mirabilis, E. Faecalis</t>
-  </si>
-  <si>
-    <t>A BAUMANNII, P MIRABILIS, E FAECALIS</t>
-  </si>
-  <si>
-    <t>P mirabilis</t>
-  </si>
-  <si>
-    <t>P MIRABILIS</t>
-  </si>
-  <si>
-    <t>K. Pneumoniae</t>
-  </si>
-  <si>
-    <t>K. Pneumoniae ans S aureus</t>
-  </si>
-  <si>
-    <t>K PNEUMONIAE ANS S AUREUS</t>
-  </si>
-  <si>
-    <t>Pseudomonas and S. saprophyticus</t>
-  </si>
-  <si>
-    <t>PSEUDOMONAS S SAPROPHYTICUS</t>
-  </si>
-  <si>
-    <t>E. Coli, A baumannii, P.mirabilis, E.Faecalis, S saprophyticus</t>
-  </si>
-  <si>
-    <t>E COLI, A BAUMANNII, P MIRABILIS, E FAECALIS, S SAPROPHYTICUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A baumannii, E.Faecalis, S aureus</t>
-  </si>
-  <si>
-    <t>A BAUMANNII, E FAECALIS, S AUREUS</t>
-  </si>
-  <si>
-    <t>E. Coli and A baumannii</t>
-  </si>
-  <si>
-    <t>E COLI A BAUMANNII</t>
-  </si>
-  <si>
-    <t>E. Coli, P.mirabilis, S aureus</t>
-  </si>
-  <si>
-    <t>E COLI, P MIRABILIS, S AUREUS</t>
-  </si>
-  <si>
-    <t>S saprophyticus</t>
-  </si>
-  <si>
-    <t>S SAPROPHYTICUS</t>
-  </si>
-  <si>
-    <t>K. Pneumoniae ans P aeruginosa</t>
-  </si>
-  <si>
-    <t>K PNEUMONIAE ANS P AERUGINOSA</t>
-  </si>
-  <si>
-    <t>E. Coli and E.Faecalis</t>
-  </si>
-  <si>
-    <t>E COLI E FAECALIS</t>
-  </si>
-  <si>
-    <t>E.coli,K pneumoniae, P aeruginosa A. baumannii, P.mirabilis, E. Faecalis, S.aureus, S saprophyticus</t>
-  </si>
-  <si>
-    <t>E COLI,K PNEUMONIAE, P AERUGINOSA A BAUMANNII, P MIRABILIS, E FAECALIS, S AUREUS, S SAPROPHYTICUS</t>
-  </si>
-  <si>
-    <t>A.Baumini</t>
-  </si>
-  <si>
-    <t>Enterococcus faecalis &gt;105CFU/ml)</t>
-  </si>
-  <si>
-    <t>A BAUMINI</t>
-  </si>
-  <si>
-    <t>ENTEROCOCCUS FAECALIS &gt;105CFU/ML)</t>
-  </si>
-  <si>
-    <t>P aeruginosa, E. Faecalis, S.aureus</t>
-  </si>
-  <si>
-    <t>P AERUGINOSA, E FAECALIS, S AUREUS</t>
-  </si>
-  <si>
-    <t>E.coli, P aeruginosa, E. Faecalis, S saprophyticus</t>
-  </si>
-  <si>
-    <t>Pseudomonas aeuroginosa</t>
-  </si>
-  <si>
-    <t>E COLI, P AERUGINOSA, E FAECALIS, S SAPROPHYTICUS</t>
-  </si>
-  <si>
-    <t>PSEUDOMONAS AEUROGINOSA</t>
-  </si>
-  <si>
-    <t>E. Faecalis, S saprophyticus</t>
-  </si>
-  <si>
-    <t>E FAECALIS, S SAPROPHYTICUS</t>
-  </si>
-  <si>
-    <t>E.coli and K pneumoniae</t>
-  </si>
-  <si>
-    <t>A. Bauminni</t>
-  </si>
-  <si>
-    <t>A BAUMINNI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K pneumoniae and P aeruginosa </t>
-  </si>
-  <si>
-    <t>K PNEUMONIAE P AERUGINOSA</t>
-  </si>
-  <si>
-    <t>Insignificant growth</t>
-  </si>
-  <si>
-    <t>INSIGNIFICANT GROWTH</t>
-  </si>
-  <si>
-    <t>S. Aureus and K.Pneuminoneae</t>
-  </si>
-  <si>
-    <t>S AUREUS K PNEUMINONEAE</t>
-  </si>
-  <si>
-    <t>E.Coli, psedomomass, A. baumannii, E. Faecalis, P mirabilis</t>
-  </si>
-  <si>
-    <t>E COLI, PSEDOMOMASS, A BAUMANNII, E FAECALIS, P MIRABILIS</t>
-  </si>
-  <si>
-    <t>E.coli, A. baumannii,  S saprophyticus</t>
-  </si>
-  <si>
-    <t>E COLI, A BAUMANNII, S SAPROPHYTICUS</t>
-  </si>
-  <si>
-    <t>E.fecalis</t>
-  </si>
-  <si>
-    <t>E FECALIS</t>
-  </si>
-  <si>
-    <t>A. baumannii, S.aureus</t>
-  </si>
-  <si>
-    <t>A BAUMANNII, S AUREUS</t>
-  </si>
-  <si>
-    <t>klebsiella, E.coli</t>
-  </si>
-  <si>
-    <t>KLEBSIELLA, E COLI</t>
-  </si>
-  <si>
-    <t>E. coli, E. Faecalis</t>
-  </si>
-  <si>
-    <t>E. Faecalis</t>
-  </si>
-  <si>
-    <t>E. coli, S.aureus</t>
-  </si>
-  <si>
-    <t>E COLI, S AUREUS</t>
-  </si>
-  <si>
-    <t>P. aeruginosa</t>
-  </si>
-  <si>
-    <t>Acintobacter spp.</t>
-  </si>
-  <si>
-    <t>ACINTOBACTER SPP</t>
-  </si>
-  <si>
-    <t>A baumannii, S saprophyticus</t>
-  </si>
-  <si>
-    <t>A BAUMANNII, S SAPROPHYTICUS</t>
-  </si>
-  <si>
-    <t>P mirabilis, S aureus, E.coli</t>
-  </si>
-  <si>
-    <t>P MIRABILIS, S AUREUS, E COLI</t>
-  </si>
-  <si>
-    <t>S aureus</t>
-  </si>
-  <si>
-    <t>S AUREUS</t>
-  </si>
-  <si>
-    <t>E.Coli, P mirabilis</t>
-  </si>
-  <si>
-    <t>E COLI, P MIRABILIS</t>
-  </si>
-  <si>
-    <t>E.coli and K.pneumoneae</t>
-  </si>
-  <si>
-    <t>Methicillin-resistant Staphylococcus aureus</t>
-  </si>
-  <si>
-    <t>E COLI K PNEUMONEAE</t>
-  </si>
-  <si>
-    <t>METHICILLIN-RESISTANT STAPHYLOCOCCUS AUREUS</t>
-  </si>
-  <si>
-    <t>Commensal Flora</t>
-  </si>
-  <si>
-    <t>COMMENSAL FLORA</t>
-  </si>
-  <si>
-    <t>K pneumoniae, P mirabilis</t>
-  </si>
-  <si>
     <t>A. Baumannii</t>
   </si>
   <si>
@@ -672,9 +579,6 @@
   </si>
   <si>
     <t>K PNEUMONIAE, P MIRABILIS S AUREUS</t>
-  </si>
-  <si>
-    <t>K.pneumoniae and P. aeruginosa</t>
   </si>
 </sst>
 </file>
@@ -693,6 +597,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1047,26 +952,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W147"/>
+  <dimension ref="A1:X106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="T100" sqref="T100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,14 +1016,14 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1184,36 +1082,39 @@
         <f>IF(O2=R2,1,"")</f>
         <v/>
       </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
       <c r="V2">
-        <f>SUM(R2:R147)</f>
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <f>SUM(O2:O147)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <f>SUM(O2:O106)</f>
+        <v>64</v>
+      </c>
+      <c r="X2">
+        <f>SUM(R2:R106)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>20240016182</v>
+        <v>20230125389</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1243,57 +1144,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f>IF(O3=R3,1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T66" si="0">IF(O3=R3,1,"")</f>
+        <v/>
       </c>
       <c r="V3">
-        <f>146-V2</f>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <f>146-W2</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <f>105-W2</f>
+        <v>41</v>
+      </c>
+      <c r="X3">
+        <f>105-X2</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>20230125389</v>
+        <v>20240012395</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1302,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1320,49 +1221,49 @@
         <v>1</v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" ref="T4:T67" si="0">IF(O4=R4,1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>20180022685</v>
+        <v>20220166372</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1384,21 +1285,27 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>20201415102</v>
+        <v>20230149608</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1407,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1428,37 +1335,37 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>20240012395</v>
+        <v>20240016829</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1467,22 +1374,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1491,31 +1398,31 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>20220166372</v>
+        <v>20230179067</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1524,25 +1431,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1551,25 +1458,31 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>20240018475</v>
+        <v>20180188108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1596,67 +1509,67 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>20230149608</v>
+        <v>20240020494</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1665,52 +1578,52 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>20240016829</v>
+        <v>20240020519</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1732,24 +1645,24 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>20230179067</v>
+        <v>20240015483</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1758,13 +1671,13 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1792,30 +1705,30 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>20180188108</v>
+        <v>20240001249</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1836,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1845,58 +1758,58 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>20230141608</v>
+        <v>20210094336</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1905,46 +1818,46 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>20240020494</v>
+        <v>20240006140</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1956,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1965,31 +1878,31 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>20240020519</v>
+        <v>20240020436</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2032,36 +1945,36 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>20240015483</v>
+        <v>20240022523</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2076,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2085,49 +1998,49 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>20240001249</v>
+        <v>20240022502</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2152,39 +2065,39 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>20210094336</v>
+        <v>20220064259</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2196,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2205,103 +2118,106 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>20240006140</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="T20" t="str">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3">
+        <v>20240019044</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>20240020436</v>
+        <v>20240024003</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2316,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2325,31 +2241,34 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>20240022478</v>
+        <v>20240012256</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2373,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2382,34 +2301,34 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>20240022523</v>
+        <v>20210046443</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2433,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2442,28 +2361,31 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>20220102808</v>
+        <v>20220153472</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2506,27 +2428,27 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>20240022502</v>
+        <v>20220088296</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2541,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2566,21 +2488,24 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>20240017188</v>
+        <v>20220064546</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2598,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2607,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2616,49 +2541,49 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B27">
-        <v>20220064259</v>
+        <v>20210126376</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2683,30 +2608,30 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>20240019044</v>
+        <v>20240012094</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2715,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2743,30 +2668,30 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>20240024003</v>
+        <v>20240027303</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2775,19 +2700,19 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2796,37 +2721,37 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>20240012256</v>
+        <v>20240002618</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2847,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2856,37 +2781,37 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>20210046443</v>
+        <v>20240023202</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2907,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2916,34 +2841,37 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B32">
-        <v>20240024207</v>
+        <v>20240015339</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2952,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2964,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2973,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" t="str">
         <f t="shared" si="0"/>
@@ -2982,22 +2910,22 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B33">
-        <v>20220153472</v>
+        <v>20240029036</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3009,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3024,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -3033,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="str">
         <f t="shared" si="0"/>
@@ -3042,25 +2970,25 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B34">
-        <v>20240024158</v>
+        <v>20240028839</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3084,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3093,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="str">
         <f t="shared" si="0"/>
@@ -3102,28 +3030,28 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B35">
-        <v>20220088296</v>
+        <v>20240025209</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3135,16 +3063,16 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3153,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" t="str">
         <f t="shared" si="0"/>
@@ -3162,25 +3090,25 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B36">
-        <v>20220064546</v>
+        <v>20240028100</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3204,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3213,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="str">
         <f t="shared" si="0"/>
@@ -3222,19 +3150,22 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B37">
-        <v>20240024631</v>
+        <v>20220083756</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3243,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3261,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -3270,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="str">
         <f t="shared" si="0"/>
@@ -3279,46 +3210,49 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B38">
-        <v>20240022566</v>
+        <v>20240030957</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3327,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="str">
         <f t="shared" si="0"/>
@@ -3336,22 +3270,22 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B39">
-        <v>20210126376</v>
+        <v>20230158280</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3369,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3378,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -3387,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="str">
         <f t="shared" si="0"/>
@@ -3396,25 +3330,25 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B40">
-        <v>20240012094</v>
+        <v>20240012274</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3438,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3447,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="str">
         <f t="shared" si="0"/>
@@ -3456,22 +3390,22 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B41">
-        <v>20240027303</v>
+        <v>20240029225</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3516,25 +3450,25 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B42">
-        <v>20240002618</v>
+        <v>20240032359</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3543,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3576,31 +3510,31 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B43">
-        <v>20240023202</v>
+        <v>20240002772</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3609,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3636,22 +3570,22 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B44">
-        <v>20240027383</v>
+        <v>20240030597</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3696,31 +3630,34 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B45">
-        <v>20210126581</v>
+        <v>20230083087</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3753,28 +3690,31 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B46">
-        <v>20240026634</v>
+        <v>20240039022</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3792,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -3801,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" t="str">
         <f t="shared" si="0"/>
@@ -3810,31 +3750,31 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B47">
-        <v>20240015339</v>
+        <v>20240032128</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3843,10 +3783,10 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3870,22 +3810,25 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B48">
-        <v>20240028955</v>
+        <v>20190007174</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -3900,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3909,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3918,34 +3861,37 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B49">
-        <v>20240028466</v>
+        <v>20240051938</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3982,87 +3928,90 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>20240029036</v>
-      </c>
-      <c r="C50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>1</v>
-      </c>
-      <c r="T50" t="str">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>70</v>
+      </c>
+      <c r="B50" s="3">
+        <v>20240034567</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B51">
-        <v>20240028839</v>
+        <v>20240048714</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4071,13 +4020,13 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -4102,24 +4051,24 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B52">
-        <v>20240025209</v>
+        <v>20180142185</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4134,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -4146,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -4155,37 +4104,37 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B53">
-        <v>20240028100</v>
+        <v>20240058395</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -4222,30 +4171,30 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B54">
-        <v>20220083756</v>
+        <v>20200075595</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -4257,10 +4206,10 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -4282,21 +4231,24 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B55">
-        <v>20240030665</v>
+        <v>20240062455</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4305,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4320,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -4332,34 +4284,34 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B56">
-        <v>20240030957</v>
+        <v>20240062254</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4368,22 +4320,22 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -4392,52 +4344,52 @@
         <v>0</v>
       </c>
       <c r="R56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B57">
-        <v>20230158280</v>
+        <v>20240060273</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4459,27 +4411,27 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B58">
-        <v>20240012274</v>
+        <v>20240054804</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -4488,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -4503,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -4512,34 +4464,34 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B59">
-        <v>20240029225</v>
+        <v>20240051976</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -4551,19 +4503,19 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -4572,31 +4524,31 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B60">
-        <v>20240032359</v>
+        <v>20240068214</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -4620,10 +4572,10 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -4632,40 +4584,40 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B61">
-        <v>20240002772</v>
+        <v>20240068214</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -4683,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -4692,34 +4644,34 @@
         <v>0</v>
       </c>
       <c r="R61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B62">
-        <v>20240030597</v>
+        <v>20240066137</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -4734,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4743,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -4752,58 +4704,58 @@
         <v>0</v>
       </c>
       <c r="R62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B63">
-        <v>20240030258</v>
+        <v>20240069492</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -4812,95 +4764,94 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>62</v>
-      </c>
-      <c r="B64" s="3">
-        <v>20230083087</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" s="3" t="s">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>88</v>
+      </c>
+      <c r="B64">
+        <v>20240067159</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="T64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>89</v>
+      </c>
+      <c r="B65">
+        <v>20230028720</v>
+      </c>
+      <c r="C65" t="s">
         <v>125</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="D65" t="s">
         <v>126</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="E65" t="s">
         <v>127</v>
       </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
-      <c r="L64" s="3">
-        <v>0</v>
-      </c>
-      <c r="M64" s="3">
-        <v>0</v>
-      </c>
-      <c r="N64" s="3">
-        <v>0</v>
-      </c>
-      <c r="O64" s="3">
-        <v>0</v>
-      </c>
-      <c r="P64" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>0</v>
-      </c>
-      <c r="R64" s="3">
-        <v>0</v>
-      </c>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>20240039022</v>
-      </c>
-      <c r="C65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" t="s">
-        <v>37</v>
-      </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -4924,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -4933,100 +4884,103 @@
         <v>0</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>20240037502</v>
-      </c>
-      <c r="C66" t="s">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>90</v>
+      </c>
+      <c r="B66" s="3">
+        <v>20240046542</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D66" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D66" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>1</v>
-      </c>
-      <c r="T66" t="str">
+      <c r="E66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B67">
-        <v>20240032128</v>
+        <v>20230137322</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D67" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F67" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -5035,16 +4989,16 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -5053,31 +5007,34 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" ref="T67:T106" si="1">IF(O67=R67,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B68">
-        <v>20240035983</v>
+        <v>20240015478</v>
       </c>
       <c r="C68" t="s">
         <v>134</v>
       </c>
+      <c r="D68" t="s">
+        <v>126</v>
+      </c>
       <c r="E68" t="s">
         <v>135</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -5092,13 +5049,13 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -5113,31 +5070,31 @@
         <v>1</v>
       </c>
       <c r="T68" t="str">
-        <f t="shared" ref="T68:T131" si="1">IF(O68=R68,1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B69">
-        <v>20190007174</v>
+        <v>20240068424</v>
       </c>
       <c r="C69" t="s">
         <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -5177,142 +5134,147 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>68</v>
-      </c>
-      <c r="B70" s="3">
-        <v>20240051938</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="3" t="s">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>95</v>
+      </c>
+      <c r="B70">
+        <v>20240074728</v>
+      </c>
+      <c r="C70" t="s">
         <v>138</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3">
+      <c r="D70" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" t="s">
+        <v>140</v>
+      </c>
+      <c r="F70" t="s">
+        <v>141</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="T70" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>20240057825</v>
-      </c>
-      <c r="C71" t="s">
-        <v>139</v>
-      </c>
-      <c r="E71" t="s">
-        <v>140</v>
-      </c>
-      <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>1</v>
-      </c>
-      <c r="T71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>96</v>
+      </c>
+      <c r="B71" s="3">
+        <v>20240074281</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B72">
-        <v>20240034567</v>
+        <v>20240076716</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -5324,13 +5286,13 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -5339,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -5348,31 +5310,31 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B73">
-        <v>20240060316</v>
+        <v>20240078762</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -5415,24 +5377,24 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B74">
-        <v>20240048714</v>
+        <v>20240078772</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -5453,13 +5415,13 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -5468,37 +5430,37 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B75">
-        <v>20230023891</v>
+        <v>20240062956</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -5507,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -5519,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -5528,49 +5490,49 @@
         <v>0</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B76">
-        <v>20180142185</v>
+        <v>20240070348</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -5595,84 +5557,84 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>20240058395</v>
-      </c>
-      <c r="C77" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77" t="s">
-        <v>20</v>
-      </c>
-      <c r="E77" t="s">
-        <v>148</v>
-      </c>
-      <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>1</v>
-      </c>
-      <c r="T77" t="str">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>104</v>
+      </c>
+      <c r="B77" s="3">
+        <v>20240028527</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B78" s="3">
-        <v>20200075595</v>
+        <v>20230003855</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="G78" s="3">
         <v>0</v>
@@ -5710,30 +5672,29 @@
       <c r="R78" s="3">
         <v>0</v>
       </c>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3">
+      <c r="T78">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B79">
-        <v>20230040481</v>
+        <v>20240092861</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -5751,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -5760,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -5769,274 +5730,274 @@
         <v>0</v>
       </c>
       <c r="R79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>20240062455</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="T80" t="str">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>107</v>
+      </c>
+      <c r="B80" s="3">
+        <v>20240087671</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
+      </c>
+      <c r="L80" s="3">
+        <v>0</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0</v>
+      </c>
+      <c r="O80" s="3">
+        <v>0</v>
+      </c>
+      <c r="P80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0</v>
+      </c>
+      <c r="R80" s="3">
+        <v>0</v>
+      </c>
+      <c r="T80">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>20240062254</v>
-      </c>
-      <c r="C81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" t="s">
-        <v>37</v>
-      </c>
-      <c r="F81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="T81" t="str">
+      <c r="A81" s="2">
+        <v>108</v>
+      </c>
+      <c r="B81" s="3">
+        <v>20230121277</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>20240048215</v>
-      </c>
-      <c r="C82" t="s">
-        <v>151</v>
-      </c>
-      <c r="D82" t="s">
-        <v>78</v>
-      </c>
-      <c r="E82" t="s">
-        <v>152</v>
-      </c>
-      <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>1</v>
-      </c>
-      <c r="T82" t="str">
+      <c r="A82" s="2">
+        <v>109</v>
+      </c>
+      <c r="B82" s="3">
+        <v>20240094465</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0</v>
+      </c>
+      <c r="L82" s="3">
+        <v>0</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0</v>
+      </c>
+      <c r="N82" s="3">
+        <v>0</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0</v>
+      </c>
+      <c r="P82" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>0</v>
+      </c>
+      <c r="R82" s="3">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>20240060273</v>
-      </c>
-      <c r="C83" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" t="s">
-        <v>153</v>
-      </c>
-      <c r="E83" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" t="s">
-        <v>154</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>1</v>
-      </c>
-      <c r="T83" t="str">
+      <c r="A83" s="2">
+        <v>110</v>
+      </c>
+      <c r="B83" s="3">
+        <v>20230156801</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B84">
-        <v>20240054804</v>
+        <v>20240053790</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -6060,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -6069,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84" t="str">
         <f t="shared" si="1"/>
@@ -6078,25 +6039,25 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B85">
-        <v>20240051976</v>
+        <v>20240039512</v>
       </c>
       <c r="C85" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -6111,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -6120,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -6129,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="R85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T85" t="str">
         <f t="shared" si="1"/>
@@ -6138,22 +6099,22 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B86">
-        <v>20240068214</v>
+        <v>20170059075</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -6171,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -6180,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -6189,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="R86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86" t="str">
         <f t="shared" si="1"/>
@@ -6198,10 +6159,10 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B87">
-        <v>20240068214</v>
+        <v>20210062776</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -6210,10 +6171,10 @@
         <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -6258,10 +6219,10 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B88">
-        <v>20240066137</v>
+        <v>20240043449</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -6270,10 +6231,10 @@
         <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -6318,10 +6279,10 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B89">
-        <v>20240069492</v>
+        <v>20240076642</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -6330,10 +6291,10 @@
         <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -6378,10 +6339,10 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="B90">
-        <v>20240067159</v>
+        <v>107316668</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -6390,10 +6351,10 @@
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -6438,25 +6399,25 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="B91">
-        <v>20230028720</v>
+        <v>106105678</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -6474,13 +6435,13 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -6489,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="R91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T91" t="str">
         <f t="shared" si="1"/>
@@ -6497,83 +6458,83 @@
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>20240046542</v>
-      </c>
-      <c r="C92" t="s">
-        <v>159</v>
-      </c>
-      <c r="D92" t="s">
-        <v>160</v>
-      </c>
-      <c r="E92" t="s">
-        <v>82</v>
-      </c>
-      <c r="F92" t="s">
-        <v>161</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1</v>
-      </c>
-      <c r="T92" t="str">
+      <c r="A92" s="2">
+        <v>122</v>
+      </c>
+      <c r="B92" s="3">
+        <v>20130627983</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B93">
-        <v>20230137322</v>
+        <v>105349965</v>
       </c>
       <c r="C93" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -6585,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -6597,10 +6558,10 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -6609,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T93" t="str">
         <f t="shared" si="1"/>
@@ -6618,25 +6579,25 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B94">
-        <v>20240015478</v>
+        <v>107191161</v>
       </c>
       <c r="C94" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -6648,19 +6609,19 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -6669,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T94" t="str">
         <f t="shared" si="1"/>
@@ -6678,22 +6639,22 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B95">
-        <v>20240068424</v>
+        <v>106496785</v>
       </c>
       <c r="C95" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F95" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -6714,13 +6675,13 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -6729,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T95" t="str">
         <f t="shared" si="1"/>
@@ -6738,25 +6699,25 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B96">
-        <v>20240071058</v>
+        <v>107588621</v>
       </c>
       <c r="C96" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -6768,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -6780,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -6789,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="R96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96" t="str">
         <f t="shared" si="1"/>
@@ -6798,28 +6759,28 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B97">
-        <v>20240074728</v>
+        <v>107159161</v>
       </c>
       <c r="C97" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -6840,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -6849,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T97" t="str">
         <f t="shared" si="1"/>
@@ -6858,22 +6819,22 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="B98">
-        <v>20240074281</v>
+        <v>106037263</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="D98" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F98" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -6918,28 +6879,28 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="B99">
-        <v>20240076716</v>
+        <v>105707937</v>
       </c>
       <c r="C99" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -6948,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -6960,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -6969,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="R99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T99" t="str">
         <f t="shared" si="1"/>
@@ -6978,22 +6939,22 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B100">
-        <v>20240078762</v>
+        <v>10749833</v>
       </c>
       <c r="C100" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -7005,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -7020,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -7029,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="R100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T100" t="str">
         <f t="shared" si="1"/>
@@ -7038,10 +6999,10 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B101">
-        <v>20240078772</v>
+        <v>106940756</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -7050,10 +7011,10 @@
         <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -7098,49 +7059,49 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B102">
-        <v>20240062956</v>
+        <v>107688917</v>
       </c>
       <c r="C102" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
       <c r="M102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -7149,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="R102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T102" t="str">
         <f t="shared" si="1"/>
@@ -7158,25 +7119,25 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B103">
-        <v>20240088127</v>
+        <v>107656065</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -7200,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -7209,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="R103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T103" t="str">
         <f t="shared" si="1"/>
@@ -7218,22 +7179,22 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B104">
-        <v>20240076818</v>
+        <v>106765529</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -7278,22 +7239,22 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="B105">
-        <v>20240070348</v>
+        <v>107677777</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -7338,22 +7299,22 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="B106">
-        <v>20240028527</v>
+        <v>107579659</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -7393,2430 +7354,6 @@
       </c>
       <c r="T106" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>20230003855</v>
-      </c>
-      <c r="C107" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" t="s">
-        <v>185</v>
-      </c>
-      <c r="E107" t="s">
-        <v>22</v>
-      </c>
-      <c r="F107" t="s">
-        <v>186</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
-        <v>1</v>
-      </c>
-      <c r="T107" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>20240092861</v>
-      </c>
-      <c r="C108" t="s">
-        <v>187</v>
-      </c>
-      <c r="D108" t="s">
-        <v>187</v>
-      </c>
-      <c r="E108" t="s">
-        <v>61</v>
-      </c>
-      <c r="F108" t="s">
-        <v>61</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="L108">
-        <v>1</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108">
-        <v>0</v>
-      </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="R108">
-        <v>1</v>
-      </c>
-      <c r="T108" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>20240087671</v>
-      </c>
-      <c r="C109" t="s">
-        <v>188</v>
-      </c>
-      <c r="D109" t="s">
-        <v>189</v>
-      </c>
-      <c r="E109" t="s">
-        <v>190</v>
-      </c>
-      <c r="F109" t="s">
-        <v>191</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="L109">
-        <v>1</v>
-      </c>
-      <c r="M109">
-        <v>1</v>
-      </c>
-      <c r="N109">
-        <v>0</v>
-      </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>1</v>
-      </c>
-      <c r="T109" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>20230121277</v>
-      </c>
-      <c r="C110" t="s">
-        <v>192</v>
-      </c>
-      <c r="D110" t="s">
-        <v>193</v>
-      </c>
-      <c r="E110" t="s">
-        <v>194</v>
-      </c>
-      <c r="F110" t="s">
-        <v>195</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-      <c r="N110">
-        <v>0</v>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>1</v>
-      </c>
-      <c r="T110" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>20240094465</v>
-      </c>
-      <c r="C111" t="s">
-        <v>196</v>
-      </c>
-      <c r="D111" t="s">
-        <v>197</v>
-      </c>
-      <c r="E111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F111" t="s">
-        <v>199</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>1</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111">
-        <v>1</v>
-      </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="R111">
-        <v>1</v>
-      </c>
-      <c r="T111" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>20230156801</v>
-      </c>
-      <c r="C112" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" t="s">
-        <v>200</v>
-      </c>
-      <c r="E112" t="s">
-        <v>37</v>
-      </c>
-      <c r="F112" t="s">
-        <v>195</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
-      <c r="N112">
-        <v>0</v>
-      </c>
-      <c r="O112">
-        <v>1</v>
-      </c>
-      <c r="P112">
-        <v>0</v>
-      </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-      <c r="T112" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>20240053790</v>
-      </c>
-      <c r="C113" t="s">
-        <v>201</v>
-      </c>
-      <c r="D113" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" t="s">
-        <v>202</v>
-      </c>
-      <c r="F113" t="s">
-        <v>203</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113">
-        <v>1</v>
-      </c>
-      <c r="M113">
-        <v>0</v>
-      </c>
-      <c r="N113">
-        <v>0</v>
-      </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>1</v>
-      </c>
-      <c r="T113" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>20240039512</v>
-      </c>
-      <c r="C114" t="s">
-        <v>204</v>
-      </c>
-      <c r="D114" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" t="s">
-        <v>205</v>
-      </c>
-      <c r="F114" t="s">
-        <v>37</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>1</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114">
-        <v>1</v>
-      </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
-      <c r="N114">
-        <v>1</v>
-      </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>1</v>
-      </c>
-      <c r="T114" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>20240107218</v>
-      </c>
-      <c r="C115" t="s">
-        <v>98</v>
-      </c>
-      <c r="E115" t="s">
-        <v>22</v>
-      </c>
-      <c r="F115" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115">
-        <v>0</v>
-      </c>
-      <c r="N115">
-        <v>0</v>
-      </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>1</v>
-      </c>
-      <c r="T115" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>20240099770</v>
-      </c>
-      <c r="C116" t="s">
-        <v>59</v>
-      </c>
-      <c r="E116" t="s">
-        <v>22</v>
-      </c>
-      <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116">
-        <v>0</v>
-      </c>
-      <c r="N116">
-        <v>0</v>
-      </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-      <c r="R116">
-        <v>1</v>
-      </c>
-      <c r="T116" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>20170059075</v>
-      </c>
-      <c r="C117" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" t="s">
-        <v>37</v>
-      </c>
-      <c r="F117" t="s">
-        <v>37</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <v>0</v>
-      </c>
-      <c r="L117">
-        <v>0</v>
-      </c>
-      <c r="M117">
-        <v>0</v>
-      </c>
-      <c r="N117">
-        <v>0</v>
-      </c>
-      <c r="O117">
-        <v>1</v>
-      </c>
-      <c r="P117">
-        <v>0</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>0</v>
-      </c>
-      <c r="T117" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>20210062776</v>
-      </c>
-      <c r="C118" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" t="s">
-        <v>37</v>
-      </c>
-      <c r="F118" t="s">
-        <v>37</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="N118">
-        <v>0</v>
-      </c>
-      <c r="O118">
-        <v>1</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
-      <c r="T118" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>20240043449</v>
-      </c>
-      <c r="C119" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" t="s">
-        <v>13</v>
-      </c>
-      <c r="E119" t="s">
-        <v>37</v>
-      </c>
-      <c r="F119" t="s">
-        <v>37</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119">
-        <v>0</v>
-      </c>
-      <c r="N119">
-        <v>0</v>
-      </c>
-      <c r="O119">
-        <v>1</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>0</v>
-      </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
-      <c r="T119" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>20240076642</v>
-      </c>
-      <c r="C120" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" t="s">
-        <v>37</v>
-      </c>
-      <c r="F120" t="s">
-        <v>37</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="N120">
-        <v>0</v>
-      </c>
-      <c r="O120">
-        <v>1</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>0</v>
-      </c>
-      <c r="R120">
-        <v>0</v>
-      </c>
-      <c r="T120" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>20240094375</v>
-      </c>
-      <c r="C121" t="s">
-        <v>13</v>
-      </c>
-      <c r="E121" t="s">
-        <v>37</v>
-      </c>
-      <c r="F121" t="s">
-        <v>15</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-      <c r="N121">
-        <v>0</v>
-      </c>
-      <c r="O121">
-        <v>1</v>
-      </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-      <c r="Q121">
-        <v>0</v>
-      </c>
-      <c r="R121">
-        <v>0</v>
-      </c>
-      <c r="T121" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>107316668</v>
-      </c>
-      <c r="C122" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" t="s">
-        <v>37</v>
-      </c>
-      <c r="F122" t="s">
-        <v>37</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <v>1</v>
-      </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
-        <v>0</v>
-      </c>
-      <c r="T122" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>106105678</v>
-      </c>
-      <c r="C123" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" t="s">
-        <v>37</v>
-      </c>
-      <c r="F123" t="s">
-        <v>37</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="N123">
-        <v>0</v>
-      </c>
-      <c r="O123">
-        <v>1</v>
-      </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-      <c r="Q123">
-        <v>0</v>
-      </c>
-      <c r="R123">
-        <v>0</v>
-      </c>
-      <c r="T123" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>20130627983</v>
-      </c>
-      <c r="C124" t="s">
-        <v>59</v>
-      </c>
-      <c r="D124" t="s">
-        <v>206</v>
-      </c>
-      <c r="E124" t="s">
-        <v>22</v>
-      </c>
-      <c r="F124" t="s">
-        <v>207</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>1</v>
-      </c>
-      <c r="T124" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>105349965</v>
-      </c>
-      <c r="C125" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" t="s">
-        <v>37</v>
-      </c>
-      <c r="F125" t="s">
-        <v>37</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-      <c r="N125">
-        <v>0</v>
-      </c>
-      <c r="O125">
-        <v>1</v>
-      </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>0</v>
-      </c>
-      <c r="T125" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>107191161</v>
-      </c>
-      <c r="C126" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" t="s">
-        <v>37</v>
-      </c>
-      <c r="F126" t="s">
-        <v>37</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
-      <c r="N126">
-        <v>0</v>
-      </c>
-      <c r="O126">
-        <v>1</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-      <c r="Q126">
-        <v>0</v>
-      </c>
-      <c r="R126">
-        <v>0</v>
-      </c>
-      <c r="T126" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>107591141</v>
-      </c>
-      <c r="C127" t="s">
-        <v>72</v>
-      </c>
-      <c r="E127" t="s">
-        <v>73</v>
-      </c>
-      <c r="F127" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <v>0</v>
-      </c>
-      <c r="N127">
-        <v>0</v>
-      </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
-      </c>
-      <c r="R127">
-        <v>1</v>
-      </c>
-      <c r="T127" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>106496785</v>
-      </c>
-      <c r="C128" t="s">
-        <v>208</v>
-      </c>
-      <c r="D128" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128" t="s">
-        <v>209</v>
-      </c>
-      <c r="F128" t="s">
-        <v>37</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>1</v>
-      </c>
-      <c r="N128">
-        <v>1</v>
-      </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-      <c r="Q128">
-        <v>0</v>
-      </c>
-      <c r="R128">
-        <v>1</v>
-      </c>
-      <c r="T128" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>107588621</v>
-      </c>
-      <c r="C129" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" t="s">
-        <v>37</v>
-      </c>
-      <c r="F129" t="s">
-        <v>37</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>0</v>
-      </c>
-      <c r="N129">
-        <v>0</v>
-      </c>
-      <c r="O129">
-        <v>1</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-      <c r="Q129">
-        <v>0</v>
-      </c>
-      <c r="R129">
-        <v>0</v>
-      </c>
-      <c r="T129" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>107159161</v>
-      </c>
-      <c r="C130" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130" t="s">
-        <v>37</v>
-      </c>
-      <c r="F130" t="s">
-        <v>37</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-      <c r="O130">
-        <v>1</v>
-      </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-      <c r="Q130">
-        <v>0</v>
-      </c>
-      <c r="R130">
-        <v>0</v>
-      </c>
-      <c r="T130" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>106037263</v>
-      </c>
-      <c r="C131" t="s">
-        <v>210</v>
-      </c>
-      <c r="D131" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" t="s">
-        <v>121</v>
-      </c>
-      <c r="F131" t="s">
-        <v>37</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>1</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
-      </c>
-      <c r="N131">
-        <v>0</v>
-      </c>
-      <c r="O131">
-        <v>0</v>
-      </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-      <c r="Q131">
-        <v>0</v>
-      </c>
-      <c r="R131">
-        <v>1</v>
-      </c>
-      <c r="T131" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>105707937</v>
-      </c>
-      <c r="C132" t="s">
-        <v>211</v>
-      </c>
-      <c r="D132" t="s">
-        <v>13</v>
-      </c>
-      <c r="E132" t="s">
-        <v>212</v>
-      </c>
-      <c r="F132" t="s">
-        <v>37</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132">
-        <v>1</v>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-      <c r="M132">
-        <v>1</v>
-      </c>
-      <c r="N132">
-        <v>0</v>
-      </c>
-      <c r="O132">
-        <v>0</v>
-      </c>
-      <c r="P132">
-        <v>0</v>
-      </c>
-      <c r="Q132">
-        <v>0</v>
-      </c>
-      <c r="R132">
-        <v>1</v>
-      </c>
-      <c r="T132" t="str">
-        <f t="shared" ref="T132:T147" si="2">IF(O132=R132,1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>10749833</v>
-      </c>
-      <c r="C133" t="s">
-        <v>116</v>
-      </c>
-      <c r="D133" t="s">
-        <v>13</v>
-      </c>
-      <c r="E133" t="s">
-        <v>117</v>
-      </c>
-      <c r="F133" t="s">
-        <v>37</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <v>0</v>
-      </c>
-      <c r="N133">
-        <v>1</v>
-      </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-      <c r="P133">
-        <v>0</v>
-      </c>
-      <c r="Q133">
-        <v>0</v>
-      </c>
-      <c r="R133">
-        <v>1</v>
-      </c>
-      <c r="T133" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>106940756</v>
-      </c>
-      <c r="C134" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" t="s">
-        <v>37</v>
-      </c>
-      <c r="F134" t="s">
-        <v>37</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-      <c r="N134">
-        <v>0</v>
-      </c>
-      <c r="O134">
-        <v>1</v>
-      </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>0</v>
-      </c>
-      <c r="T134" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>107688917</v>
-      </c>
-      <c r="C135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" t="s">
-        <v>13</v>
-      </c>
-      <c r="E135" t="s">
-        <v>37</v>
-      </c>
-      <c r="F135" t="s">
-        <v>37</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-      <c r="N135">
-        <v>0</v>
-      </c>
-      <c r="O135">
-        <v>1</v>
-      </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>0</v>
-      </c>
-      <c r="T135" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>107656065</v>
-      </c>
-      <c r="C136" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136" t="s">
-        <v>37</v>
-      </c>
-      <c r="F136" t="s">
-        <v>37</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-      <c r="N136">
-        <v>0</v>
-      </c>
-      <c r="O136">
-        <v>1</v>
-      </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <v>0</v>
-      </c>
-      <c r="T136" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>107332121</v>
-      </c>
-      <c r="C137" t="s">
-        <v>13</v>
-      </c>
-      <c r="E137" t="s">
-        <v>37</v>
-      </c>
-      <c r="F137" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-      <c r="N137">
-        <v>0</v>
-      </c>
-      <c r="O137">
-        <v>1</v>
-      </c>
-      <c r="P137">
-        <v>0</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>0</v>
-      </c>
-      <c r="T137" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>105499701</v>
-      </c>
-      <c r="C138" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" t="s">
-        <v>37</v>
-      </c>
-      <c r="F138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
-      <c r="N138">
-        <v>0</v>
-      </c>
-      <c r="O138">
-        <v>1</v>
-      </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
-        <v>0</v>
-      </c>
-      <c r="T138" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>107545828</v>
-      </c>
-      <c r="C139" t="s">
-        <v>213</v>
-      </c>
-      <c r="E139" t="s">
-        <v>140</v>
-      </c>
-      <c r="F139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>1</v>
-      </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-      <c r="M139">
-        <v>0</v>
-      </c>
-      <c r="N139">
-        <v>0</v>
-      </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-      <c r="P139">
-        <v>0</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>1</v>
-      </c>
-      <c r="T139" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>105152175</v>
-      </c>
-      <c r="C140" t="s">
-        <v>13</v>
-      </c>
-      <c r="E140" t="s">
-        <v>37</v>
-      </c>
-      <c r="F140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-      <c r="M140">
-        <v>0</v>
-      </c>
-      <c r="N140">
-        <v>0</v>
-      </c>
-      <c r="O140">
-        <v>1</v>
-      </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-      <c r="R140">
-        <v>0</v>
-      </c>
-      <c r="T140" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>106765529</v>
-      </c>
-      <c r="C141" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141" t="s">
-        <v>37</v>
-      </c>
-      <c r="F141" t="s">
-        <v>37</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-      <c r="M141">
-        <v>0</v>
-      </c>
-      <c r="N141">
-        <v>0</v>
-      </c>
-      <c r="O141">
-        <v>1</v>
-      </c>
-      <c r="P141">
-        <v>0</v>
-      </c>
-      <c r="Q141">
-        <v>0</v>
-      </c>
-      <c r="R141">
-        <v>0</v>
-      </c>
-      <c r="T141" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>107677777</v>
-      </c>
-      <c r="C142" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" t="s">
-        <v>13</v>
-      </c>
-      <c r="E142" t="s">
-        <v>37</v>
-      </c>
-      <c r="F142" t="s">
-        <v>37</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="M142">
-        <v>0</v>
-      </c>
-      <c r="N142">
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <v>1</v>
-      </c>
-      <c r="P142">
-        <v>0</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
-      <c r="R142">
-        <v>0</v>
-      </c>
-      <c r="T142" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>107523163</v>
-      </c>
-      <c r="C143" t="s">
-        <v>13</v>
-      </c>
-      <c r="E143" t="s">
-        <v>37</v>
-      </c>
-      <c r="F143" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <v>0</v>
-      </c>
-      <c r="N143">
-        <v>0</v>
-      </c>
-      <c r="O143">
-        <v>1</v>
-      </c>
-      <c r="P143">
-        <v>0</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-      <c r="R143">
-        <v>0</v>
-      </c>
-      <c r="T143" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>107579659</v>
-      </c>
-      <c r="C144" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144" t="s">
-        <v>37</v>
-      </c>
-      <c r="F144" t="s">
-        <v>37</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="M144">
-        <v>0</v>
-      </c>
-      <c r="N144">
-        <v>0</v>
-      </c>
-      <c r="O144">
-        <v>1</v>
-      </c>
-      <c r="P144">
-        <v>0</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>0</v>
-      </c>
-      <c r="T144" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>107607851</v>
-      </c>
-      <c r="C145" t="s">
-        <v>13</v>
-      </c>
-      <c r="E145" t="s">
-        <v>37</v>
-      </c>
-      <c r="F145" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="M145">
-        <v>0</v>
-      </c>
-      <c r="N145">
-        <v>0</v>
-      </c>
-      <c r="O145">
-        <v>1</v>
-      </c>
-      <c r="P145">
-        <v>0</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>0</v>
-      </c>
-      <c r="T145" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>107727541</v>
-      </c>
-      <c r="C146" t="s">
-        <v>116</v>
-      </c>
-      <c r="E146" t="s">
-        <v>117</v>
-      </c>
-      <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146">
-        <v>0</v>
-      </c>
-      <c r="N146">
-        <v>1</v>
-      </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-      <c r="P146">
-        <v>0</v>
-      </c>
-      <c r="Q146">
-        <v>0</v>
-      </c>
-      <c r="R146">
-        <v>1</v>
-      </c>
-      <c r="T146" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>107299718</v>
-      </c>
-      <c r="C147" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147" t="s">
-        <v>37</v>
-      </c>
-      <c r="F147" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-      <c r="M147">
-        <v>0</v>
-      </c>
-      <c r="N147">
-        <v>0</v>
-      </c>
-      <c r="O147">
-        <v>1</v>
-      </c>
-      <c r="P147">
-        <v>0</v>
-      </c>
-      <c r="Q147">
-        <v>0</v>
-      </c>
-      <c r="R147">
-        <v>0</v>
-      </c>
-      <c r="T147" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>

--- a/temp1.xlsx
+++ b/temp1.xlsx
@@ -8,27 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_090170A89C6DB20E62355476585DCE3A87478BA2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A42F652-23D0-4167-B5B4-37043E70EAD5}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_52996B945D5F4A0F62355476585DCE3A874724DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{444A55A0-2C4D-448A-A7E1-8A5E125B119E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -41,7 +28,7 @@
     <t>Infection_R</t>
   </si>
   <si>
-    <t>Diagnosis</t>
+    <t>Infection_A</t>
   </si>
   <si>
     <t>Abdominal pain</t>
@@ -416,15 +403,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="O103" sqref="O103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -591,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -643,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -669,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -721,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -799,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -825,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -851,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -877,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -897,19 +890,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20240022478</v>
+        <v>20240022523</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -923,19 +916,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20240022523</v>
+        <v>20220102808</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -949,10 +942,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20220102808</v>
+        <v>20240022502</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -961,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -975,7 +968,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20240022502</v>
+        <v>20240019044</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -984,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1001,19 +994,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20240017188</v>
+        <v>20240024003</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1027,19 +1020,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20240019044</v>
+        <v>20240012256</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1053,19 +1046,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20240024003</v>
+        <v>20210046443</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1079,19 +1072,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>20240012256</v>
+        <v>20220153472</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1105,10 +1098,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>20210046443</v>
+        <v>20240024158</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1131,10 +1124,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>20240024207</v>
+        <v>20220088296</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1146,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1157,13 +1150,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>20220153472</v>
+        <v>20220064546</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1183,7 +1176,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>20240024158</v>
+        <v>20210126376</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1192,13 +1185,13 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1209,7 +1202,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>20220088296</v>
+        <v>20240012094</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1224,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1235,13 +1228,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>20220064546</v>
+        <v>20240027303</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1261,19 +1254,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>20240024631</v>
+        <v>20240002618</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1287,10 +1280,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>20240022566</v>
+        <v>20240023202</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1313,22 +1306,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>20210126376</v>
+        <v>20240027383</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1339,13 +1332,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>20240012094</v>
+        <v>20240015339</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1365,13 +1358,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>20240027303</v>
+        <v>20240029036</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1391,19 +1384,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>20240002618</v>
+        <v>20240028839</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1417,19 +1410,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>20240023202</v>
+        <v>20240025209</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1443,13 +1436,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>20240027383</v>
+        <v>20240028100</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1469,13 +1462,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>20210126581</v>
+        <v>20220083756</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1495,13 +1488,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>20240026634</v>
+        <v>20240030957</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1521,10 +1514,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>20240015339</v>
+        <v>20230158280</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1533,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1547,10 +1540,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>20240028955</v>
+        <v>20240012274</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1559,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1573,13 +1566,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>20240028466</v>
+        <v>20240029225</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1599,10 +1592,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>20240029036</v>
+        <v>20240032359</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1617,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1625,10 +1618,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>20240028839</v>
+        <v>20240002772</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1637,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1651,13 +1644,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>20240025209</v>
+        <v>20240030597</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1677,7 +1670,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>20240028100</v>
+        <v>20240030258</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1689,13 +1682,13 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1703,7 +1696,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>20220083756</v>
+        <v>20230083087</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1712,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -1729,13 +1722,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>20240030665</v>
+        <v>20240039022</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1755,10 +1748,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>20240030957</v>
+        <v>20240037502</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1781,7 +1774,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>20230158280</v>
+        <v>20240032128</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1793,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -1807,13 +1800,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>20240012274</v>
+        <v>20190007174</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1833,10 +1826,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>20240029225</v>
+        <v>20240051938</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1845,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -1859,7 +1852,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>20240032359</v>
+        <v>20240034567</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1871,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1885,10 +1878,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>20240002772</v>
+        <v>20240060316</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1900,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -1911,10 +1904,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>20240030597</v>
+        <v>20240048714</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1923,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1937,10 +1930,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>20240030258</v>
+        <v>20230023891</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1949,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1963,19 +1956,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>20230083087</v>
+        <v>20180142185</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -1989,10 +1982,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>20240039022</v>
+        <v>20240058395</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2007,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2015,7 +2008,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>20240037502</v>
+        <v>20200075595</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2027,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2041,10 +2034,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>20240032128</v>
+        <v>20230040481</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2053,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2067,7 +2060,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>20240035983</v>
+        <v>20240062455</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2079,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2093,19 +2086,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>20190007174</v>
+        <v>20240062254</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2119,7 +2112,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>20240051938</v>
+        <v>20240048215</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2134,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2145,16 +2138,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>20240057825</v>
+        <v>20240060273</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2171,19 +2164,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>20240034567</v>
+        <v>20240054804</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2197,13 +2190,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>20240060316</v>
+        <v>20240051976</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2215,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2223,19 +2216,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>20240048714</v>
+        <v>20240068214</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2249,13 +2242,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>20230023891</v>
+        <v>20240068215</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2267,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2275,19 +2268,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>20180142185</v>
+        <v>20240066137</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2301,25 +2294,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>20240058395</v>
+        <v>20240069492</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2327,22 +2320,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>20200075595</v>
+        <v>20240067159</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2353,10 +2346,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>20230040481</v>
+        <v>20230028720</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2365,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2379,25 +2372,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>20240062455</v>
+        <v>20240046542</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2405,16 +2398,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>20240062254</v>
+        <v>20230137322</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2431,7 +2424,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>20240048215</v>
+        <v>20240015478</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2443,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2457,7 +2450,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>20240060273</v>
+        <v>20240068424</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2472,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2483,19 +2476,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>20240054804</v>
+        <v>20240071058</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2509,16 +2502,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>20240051976</v>
+        <v>20240074728</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2527,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2535,25 +2528,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>20240068214</v>
+        <v>20240074281</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2561,7 +2554,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>20240068215</v>
+        <v>20240076716</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2570,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2587,10 +2580,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>20240066137</v>
+        <v>20240078762</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2599,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2613,7 +2606,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>20240069492</v>
+        <v>20240078772</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2622,16 +2615,16 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -2639,10 +2632,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>20240067159</v>
+        <v>20240062956</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2657,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2665,13 +2658,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>20230028720</v>
+        <v>20240088127</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2691,13 +2684,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>20240046542</v>
+        <v>20240076818</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2706,380 +2699,10 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>20230137322</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>20240015478</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>20240068424</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>20240071058</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>20240074728</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>20240074281</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>20240076716</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>20240078762</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>20240078772</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>20240062956</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>20240088127</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>20240076818</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <f>SUM(C2:C100)</f>
-        <v>59</v>
-      </c>
-      <c r="D102">
-        <f>SUM(D2:D100)</f>
-        <v>84</v>
-      </c>
-      <c r="E102">
-        <f t="shared" ref="E102:H102" si="0">SUM(E2:E100)</f>
-        <v>14</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <f>99-C102</f>
-        <v>40</v>
-      </c>
-      <c r="D103">
-        <f>99-D102</f>
-        <v>15</v>
-      </c>
-      <c r="E103">
-        <f t="shared" ref="E103:H103" si="1">99-E102</f>
-        <v>85</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
